--- a/src/geografia/ExcelsUpload/municipi.xlsx
+++ b/src/geografia/ExcelsUpload/municipi.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\Projectes\proaV2\src\geografia\ExcelsUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="mpiscatalunya" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 

--- a/src/geografia/ExcelsUpload/municipi.xlsx
+++ b/src/geografia/ExcelsUpload/municipi.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10050"/>
   </bookViews>
   <sheets>
-    <sheet name="mpiscatalunya" sheetId="1" r:id="rId1"/>
+    <sheet name="Municipi" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -6786,7 +6786,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F948"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/src/geografia/ExcelsUpload/municipi.xlsx
+++ b/src/geografia/ExcelsUpload/municipi.xlsx
@@ -5967,16 +5967,16 @@
     <t>nom</t>
   </si>
   <si>
-    <t>codi comarca</t>
-  </si>
-  <si>
-    <t>nom comarca</t>
-  </si>
-  <si>
-    <t>codi provincia</t>
-  </si>
-  <si>
-    <t>nom provincia</t>
+    <t>codi_comarca</t>
+  </si>
+  <si>
+    <t>nom_comarca</t>
+  </si>
+  <si>
+    <t>codi_ provincia</t>
+  </si>
+  <si>
+    <t>nom_provincia</t>
   </si>
 </sst>
 </file>
@@ -6787,7 +6787,7 @@
   <dimension ref="A1:F948"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/geografia/ExcelsUpload/municipi.xlsx
+++ b/src/geografia/ExcelsUpload/municipi.xlsx
@@ -5973,10 +5973,10 @@
     <t>nom_comarca</t>
   </si>
   <si>
-    <t>codi_ provincia</t>
-  </si>
-  <si>
     <t>nom_provincia</t>
+  </si>
+  <si>
+    <t>codi_provincia</t>
   </si>
 </sst>
 </file>
@@ -6787,7 +6787,7 @@
   <dimension ref="A1:F948"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6810,10 +6810,10 @@
         <v>1983</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1984</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1985</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
